--- a/system/indicators.xlsx
+++ b/system/indicators.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="308">
   <si>
     <t xml:space="preserve">acronym</t>
   </si>
@@ -74,6 +74,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">timing</t>
+  </si>
+  <si>
     <t xml:space="preserve">usage</t>
   </si>
   <si>
@@ -215,117 +218,126 @@
     <t xml:space="preserve">trend strength</t>
   </si>
   <si>
+    <t xml:space="preserve">breakout(trend)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parabolic SAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DetrendedPriceOscillator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short-term trend cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DonchianChannels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">momentum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price-change-rate-based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momentum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving Average Convergence/Divergence (by MA type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACD_Hist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACD Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage Price Oscillator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Price Oscillator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chande Momentum Oscillator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOCHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic Fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOCHRSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic Relative Strength Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-day Rate-Of-Change (ROC) of a Triple Smooth EMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KnowSureThing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haDelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative Strength Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price-change-magnitude-based</t>
+  </si>
+  <si>
     <t xml:space="preserve">filter trend</t>
   </si>
   <si>
-    <t xml:space="preserve">SAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parabolic SAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trend following</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DetrendedPriceOscillator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short-term trend cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of Change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">momentum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price-change-rate-based</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Momentum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moving Average Convergence/Divergence (by MA type)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACD_Hist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACD Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage Price Oscillator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolute Price Oscillator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chande Momentum Oscillator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stochastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOCHF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stochastic Fast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOCHRSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stochastic Relative Strength Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-day Rate-Of-Change (ROC) of a Triple Smooth EMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KnowSureThing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haDelta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relative Strength Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price-change-magnitude-based</t>
-  </si>
-  <si>
     <t xml:space="preserve">RS</t>
   </si>
   <si>
@@ -357,6 +369,18 @@
   </si>
   <si>
     <t xml:space="preserve">TrueStrengthIndicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Strength Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connor RSI</t>
   </si>
   <si>
     <t xml:space="preserve">ADX</t>
@@ -1078,29 +1102,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1124,43 +1140,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C86" activeCellId="0" sqref="C86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="44.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="44.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1172,1799 +1188,1595 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>64</v>
+      <c r="A21" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="40.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>84</v>
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>86</v>
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="F33" s="1" t="s">
         <v>91</v>
       </c>
+    </row>
+    <row r="34" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>93</v>
+      <c r="A35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>95</v>
+      <c r="A36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>100</v>
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>102</v>
+      <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>104</v>
+      <c r="A40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A41" s="0"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="F51" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>125</v>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="F52" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>125</v>
+      <c r="C53" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="F53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
+      <c r="D55" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>136</v>
+      <c r="A57" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="C57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
       <c r="C61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2"/>
+      <c r="D61" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>149</v>
+    </row>
+    <row r="63" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
+      <c r="C68" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>170</v>
+      <c r="B75" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>171</v>
+      <c r="A76" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D76" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
+      <c r="B77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="D77" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="B78" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
+      <c r="C78" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>178</v>
+      <c r="A81" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>180</v>
+      <c r="A82" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
+    <row r="89" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C89" s="6"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C90" s="6"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C91" s="6"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C92" s="6"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C93" s="6"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C94" s="6"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C95" s="6"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="40.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+    <row r="107" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+    <row r="108" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+    <row r="109" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+    <row r="110" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+    <row r="111" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+    <row r="112" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+    <row r="113" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+    <row r="114" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
+    <row r="115" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+    <row r="116" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
+    <row r="117" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+    <row r="118" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
+    <row r="119" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+    <row r="120" customFormat="false" ht="40.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>258</v>
       </c>
@@ -2972,7 +2784,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>260</v>
       </c>
@@ -2980,7 +2792,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>262</v>
       </c>
@@ -2988,7 +2800,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>264</v>
       </c>
@@ -2996,7 +2808,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>266</v>
       </c>
@@ -3004,7 +2816,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>268</v>
       </c>
@@ -3012,7 +2824,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>270</v>
       </c>
@@ -3020,7 +2832,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>272</v>
       </c>
@@ -3028,7 +2840,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>274</v>
       </c>
@@ -3036,7 +2848,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>276</v>
       </c>
@@ -3044,7 +2856,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>278</v>
       </c>
@@ -3052,7 +2864,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>280</v>
       </c>
@@ -3060,7 +2872,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>282</v>
       </c>
@@ -3068,7 +2880,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>284</v>
       </c>
@@ -3076,7 +2888,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>286</v>
       </c>
@@ -3084,7 +2896,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>288</v>
       </c>
@@ -3092,7 +2904,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>290</v>
       </c>
@@ -3100,7 +2912,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>292</v>
       </c>
@@ -3108,7 +2920,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>294</v>
       </c>
@@ -3116,7 +2928,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>296</v>
       </c>
@@ -3124,12 +2936,44 @@
         <v>297</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>299</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="27.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3156,7 +3000,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="6" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="4" width="9"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3182,7 +3026,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="6" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="4" width="9"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/system/indicators.xlsx
+++ b/system/indicators.xlsx
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
